--- a/biology/Zoologie/Iurus_dekanum/Iurus_dekanum.xlsx
+++ b/biology/Zoologie/Iurus_dekanum/Iurus_dekanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iurus dekanum est une espèce de scorpions de la famille des Iuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Crète en Grèce[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Crète en Grèce. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 68,75 à 77,65 mm et les femelles de 84,90 à 89,25 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 68,75 à 77,65 mm et les femelles de 84,90 à 89,25 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chaerilomma dekanum par Roewer en 1943. Elle est placée dans le genre Iurus par Vachon en 1966[2].
-Elle est placée en synonymie avec Iurus dufoureius par Francke en 1981[3] puis relevée de synonymie par Soleglad, Fet, Kovařík et Yağmur en 2012[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chaerilomma dekanum par Roewer en 1943. Elle est placée dans le genre Iurus par Vachon en 1966.
+Elle est placée en synonymie avec Iurus dufoureius par Francke en 1981 puis relevée de synonymie par Soleglad, Fet, Kovařík et Yağmur en 2012.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roewer, 1943 : Über eine neuerworbene Sammlung von Skorpionen des Natur-Museums Senckenberg. Senckenbergiana, vol. 26, no 4, p. 205–244.</t>
         </is>
